--- a/2025/2025.11 Invoicing/ethylene_oxide_invoice_november_2025.xlsx
+++ b/2025/2025.11 Invoicing/ethylene_oxide_invoice_november_2025.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzabriskie/Desktop/repos/eto_billing/2025/2025.11 Invoicing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286497B3-D369-F94D-A222-68D1EAC8A725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C13F43-9C7E-854B-8723-9A85D82A85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Account</t>
   </si>
@@ -60,6 +47,24 @@
   </si>
   <si>
     <t>Total ($)</t>
+  </si>
+  <si>
+    <t>CL003</t>
+  </si>
+  <si>
+    <t>CL015</t>
+  </si>
+  <si>
+    <t>Palatinus</t>
+  </si>
+  <si>
+    <t>Hoareau/Johnson</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-18, 2025-11-20</t>
   </si>
 </sst>
 </file>
@@ -427,21 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -475,6 +480,58 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
